--- a/configs/microservice/bff-service/static/docs/graph_schema.xlsx
+++ b/configs/microservice/bff-service/static/docs/graph_schema.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10740" activeTab="1"/>
+    <workbookView windowWidth="21550" windowHeight="10080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="类目表" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">类目属性表!$A$1:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,62 +51,10 @@
     <t>中国各省份用于收藏文物的博物馆</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>属性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>关系名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>属性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>关系说明</t>
-    </r>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>属性说明</t>
   </si>
   <si>
     <t>别名(多别名以|隔开)</t>
@@ -204,14 +165,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -251,27 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -283,14 +223,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,6 +269,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,6 +329,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -389,9 +343,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -403,49 +358,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,121 +496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,21 +563,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +596,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,148 +667,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,52 +830,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1268,11 +1223,11 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="49.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="37.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="49.1636363636364" customWidth="1"/>
+    <col min="2" max="2" width="40.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="37.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1313,17 +1268,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="37.3363636363636" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="14.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.5545454545455" customWidth="1"/>
+    <col min="5" max="5" width="14.1636363636364" customWidth="1"/>
+    <col min="6" max="6" width="24.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/configs/microservice/bff-service/static/docs/graph_schema.xlsx
+++ b/configs/microservice/bff-service/static/docs/graph_schema.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21550" windowHeight="10080" activeTab="1"/>
+    <workbookView windowWidth="28128" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="类目表" sheetId="1" r:id="rId1"/>
@@ -13,20 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">类目属性表!$A$1:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -51,10 +38,62 @@
     <t>中国各省份用于收藏文物的博物馆</t>
   </si>
   <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>属性说明</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>关系名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>关系说明</t>
+    </r>
   </si>
   <si>
     <t>别名(多别名以|隔开)</t>
@@ -165,14 +204,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -212,6 +251,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,6 +283,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,14 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,6 +353,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -300,21 +368,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -329,13 +382,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -343,10 +389,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -358,13 +403,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,24 +469,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,18 +517,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,36 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,24 +553,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,12 +572,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +608,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,21 +656,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,148 +712,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,52 +875,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1220,14 +1265,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="49.1636363636364" customWidth="1"/>
-    <col min="2" max="2" width="40.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="37.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="49.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="37.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1268,17 +1313,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="37.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="20.5545454545455" customWidth="1"/>
-    <col min="5" max="5" width="14.1636363636364" customWidth="1"/>
-    <col min="6" max="6" width="24.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="14.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
